--- a/OBAOLE4421019.xlsx
+++ b/OBAOLE4421019.xlsx
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -3011,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3059,7 +3059,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="3" t="n">
-        <v>-24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -3075,7 +3075,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3091,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -3107,7 +3107,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -3139,7 +3139,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="3" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OBAOLE4421019.xlsx
+++ b/OBAOLE4421019.xlsx
@@ -62,13 +62,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2994,8 +2993,8 @@
       <c r="C2" t="n">
         <v>0</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>0</v>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -3010,8 +3009,8 @@
       <c r="C3" t="n">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>0</v>
+      <c r="D3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -3026,8 +3025,8 @@
       <c r="C4" t="n">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>0</v>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -3042,8 +3041,8 @@
       <c r="C5" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>0</v>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3058,8 +3057,8 @@
       <c r="C6" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>0</v>
+      <c r="D6" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="7">
@@ -3074,8 +3073,8 @@
       <c r="C7" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>0</v>
+      <c r="D7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -3090,8 +3089,8 @@
       <c r="C8" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>0</v>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -3106,8 +3105,8 @@
       <c r="C9" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>0</v>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -3122,8 +3121,8 @@
       <c r="C10" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>0</v>
+      <c r="D10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -3138,8 +3137,8 @@
       <c r="C11" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>0</v>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -3154,8 +3153,8 @@
       <c r="C12" t="n">
         <v>0</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>0</v>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
